--- a/Pruebas/resultados_observados_vs_predichos_all_indeg_outdeg.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos_all_indeg_outdeg.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -463,15 +463,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -479,42 +479,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -522,15 +522,15 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -538,28 +538,28 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -567,34 +567,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,39 +615,39 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>

--- a/Pruebas/resultados_observados_vs_predichos_all_indeg_outdeg.xlsx
+++ b/Pruebas/resultados_observados_vs_predichos_all_indeg_outdeg.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -463,58 +463,58 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -527,47 +527,47 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -586,28 +586,28 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,39 +615,39 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
         <v>2</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
